--- a/周数据/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/《个人上线率统计表》-刘乐乐.xlsx
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -294,6 +294,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -303,14 +327,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,39 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,10 +377,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,15 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,15 +425,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,36 +506,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,48 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -639,6 +567,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,21 +839,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -868,11 +853,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,43 +930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,134 +958,134 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,6 +1210,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,6 +1253,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1571,13 +1580,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1605,10 +1614,10 @@
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
-      <c r="J1" s="43"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
-      <c r="M1" s="44"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
       <c r="A2" s="31" t="s">
@@ -1635,19 +1644,19 @@
       <c r="H2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1674,42 +1683,64 @@
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="54">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="55">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="56">
         <f>L3/K3*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="A4" s="42">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42">
+        <v>2</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/周数据/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/《个人上线率统计表》-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -139,6 +139,168 @@
     <t>新品牌</t>
   </si>
   <si>
+    <t>南京市建邺区小喜悦餐饮店</t>
+  </si>
+  <si>
+    <t>南京小喜悦</t>
+  </si>
+  <si>
+    <t>小喜悦（南京南站店）</t>
+  </si>
+  <si>
+    <t>牛总</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>老品牌</t>
+  </si>
+  <si>
+    <t>供应链</t>
+  </si>
+  <si>
+    <t>南京御品殿餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>京茶山</t>
+  </si>
+  <si>
+    <t>京茶山二店</t>
+  </si>
+  <si>
+    <t>杨燕</t>
+  </si>
+  <si>
+    <t>系统负责人</t>
+  </si>
+  <si>
+    <t>京茶山总店</t>
+  </si>
+  <si>
+    <t>京茶山（下马坊店）</t>
+  </si>
+  <si>
+    <t>济南</t>
+  </si>
+  <si>
+    <t>京茶山济南店</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物(桥北弘阳店)</t>
+  </si>
+  <si>
+    <t>京茶山瑞金路店</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物(洪武路店)</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物(水游城店)</t>
+  </si>
+  <si>
+    <t>办公室</t>
+  </si>
+  <si>
+    <t>京茶山(老门东店)</t>
+  </si>
+  <si>
+    <t>京茶山（河西万达店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（湖北路店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（和会街店）</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（无锡江阴店）</t>
+  </si>
+  <si>
+    <t>宜兴</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（宜兴店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（红庙店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（河西中央店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（大光路店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（太阳城店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（同曦店）</t>
+  </si>
+  <si>
+    <t>马鞍山</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（马鞍山店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（油坊桥店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（文体路店）</t>
+  </si>
+  <si>
+    <t>金华</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（金华店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（铁心桥店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（义兴巷店）</t>
+  </si>
+  <si>
+    <t>常州</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（常州吾悦店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（高淳店）</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（三亚店）</t>
+  </si>
+  <si>
+    <t>京茶山（天润城店）</t>
+  </si>
+  <si>
+    <t>京茶山(江宁万达店)</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（汕头店）</t>
+  </si>
+  <si>
+    <t>南通</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通名都店）</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（南通八仙城店）</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -167,15 +329,6 @@
   </si>
   <si>
     <t>李燕东</t>
-  </si>
-  <si>
-    <t>小熹悦（南京南站店）</t>
-  </si>
-  <si>
-    <t>客户装修延迟到1月10号左右</t>
-  </si>
-  <si>
-    <t>武耀</t>
   </si>
   <si>
     <t>姓名</t>
@@ -198,12 +351,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,27 +412,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.95"/>
-      <color rgb="FF333333"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF777777"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -289,6 +421,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,47 +487,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,19 +527,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -488,6 +620,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,6 +657,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,72 +740,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -643,7 +775,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -722,6 +854,30 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -838,21 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -873,26 +1014,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,6 +1050,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -943,10 +1099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,19 +1111,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,7 +1132,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,91 +1141,91 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,14 +1234,14 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,26 +1314,37 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,16 +1356,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,25 +1377,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,19 +1401,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1582,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1596,52 +1751,52 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="46"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="47" t="s">
@@ -1661,25 +1816,25 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="36">
+      <c r="A3" s="39">
         <v>12</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="40">
         <v>52</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="41">
         <v>3</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="42">
         <v>1</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="42">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="40">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
@@ -1702,10 +1857,10 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -1721,21 +1876,31 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42">
-        <v>2</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1753,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1765,7 +1930,7 @@
     <col min="5" max="5" width="9.73333333333333"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10.2666666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.1583333333333" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
     <col min="9" max="9" width="9.86666666666667" customWidth="1"/>
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.975" customWidth="1"/>
@@ -1798,7 +1963,7 @@
       <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="30" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="22" t="s">
@@ -1839,10 +2004,10 @@
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="1">
         <v>76115987</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1867,600 +2032,1516 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+    <row r="3" spans="1:15">
+      <c r="A3" s="24">
+        <v>5</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76123019</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13913029236</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26">
+        <v>43131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1">
+        <v>76076558</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
+        <v>76079278</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76119063</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1">
+        <v>76080202</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>76080289</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>76080297</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1">
+        <v>76080310</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>76080312</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1">
+        <v>76081569</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1">
+        <v>76083751</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1">
+        <v>76085160</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76085361</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1">
+        <v>76085583</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>76089761</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1">
+        <v>76091251</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1">
+        <v>76096379</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1">
+        <v>76098613</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1">
+        <v>76098615</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1">
+        <v>76101895</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1">
+        <v>76101896</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="1">
+        <v>76102785</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76105512</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1">
+        <v>76106711</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="1">
+        <v>76108706</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1">
+        <v>76111623</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1">
+        <v>76111625</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="1">
+        <v>76112265</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1">
+        <v>76112267</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="1">
+        <v>76112691</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="1">
+        <v>76118226</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1">
+        <v>76119382</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="1">
+        <v>76122628</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="1">
+        <v>76122869</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="1">
+        <v>76123630</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
@@ -2483,7 +3564,6 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6934,6 +8014,10 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A37"/>
+    <mergeCell ref="B4:B37"/>
+  </mergeCells>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>42736</formula1>
@@ -6941,11 +8025,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O36 O37 O2:O4 O38:O1048576">
+      <formula1>"新品牌,老品牌"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6957,10 +8041,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6982,19 +8066,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7002,46 +8086,32 @@
         <v>50</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C2" s="14">
         <v>43082</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
-        <v>51</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43089</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8"/>
@@ -7093,9 +8163,9 @@
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="8"/>
@@ -7538,23 +8608,23 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" ht="14.25" spans="1:7">
       <c r="A59" s="8"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:7">
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="8"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="8"/>
@@ -7619,23 +8689,23 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" ht="14.25" spans="1:7">
       <c r="A68" s="8"/>
       <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" ht="14.25" spans="1:7">
       <c r="A69" s="8"/>
       <c r="B69" s="13"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="13"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" ht="14.25" spans="1:7">
       <c r="A70" s="8"/>
@@ -7653,16 +8723,16 @@
       <c r="D71" s="17"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:7">
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="8"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="18"/>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="8"/>
@@ -7727,14 +8797,14 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" ht="14.25" spans="1:7">
       <c r="A80" s="8"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" ht="14.25" spans="1:7">
       <c r="A81" s="8"/>
@@ -7743,16 +8813,16 @@
       <c r="D81" s="17"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" ht="14.25" spans="1:7">
+      <c r="G81" s="18"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="8"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="18"/>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="8"/>
@@ -7817,22 +8887,13 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="8"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3:E1048576">
       <formula1>"单店,连锁,KA,供应链"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="saas" sqref="F2 F3:F1048576">
       <formula1>"SAAS,供应链,SAAS+微信,SAAS+供应链,SAAS+微信+供应链"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7865,18 +8926,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>35</v>
@@ -7885,7 +8946,7 @@
         <v>43086</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/《个人上线率统计表》-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="15870" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>京茶山手作茶物（南通八仙城店）</t>
+  </si>
+  <si>
+    <t>一品飘香金地店</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -351,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -420,76 +423,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,9 +446,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,14 +480,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,8 +497,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,9 +559,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,25 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,67 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +677,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +713,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +743,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,26 +997,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,6 +1042,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1050,41 +1088,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1099,10 +1102,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,137 +1114,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,9 +1327,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1751,116 +1751,116 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>12</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="39">
         <v>52</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>3</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53">
+      <c r="I3" s="51"/>
+      <c r="J3" s="52">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="53">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="54">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="55">
         <f>L3/K3*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39">
+      <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -1870,14 +1870,14 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="57"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38">
         <v>5</v>
       </c>
       <c r="C5" s="8">
@@ -1893,7 +1893,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="57"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="8">
         <v>0</v>
       </c>
@@ -1918,8 +1918,8 @@
   <sheetPr/>
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1963,7 +1963,7 @@
       <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="22" t="s">
@@ -3501,8 +3501,8 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
@@ -3544,21 +3544,51 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="23">
+        <v>43137</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1">
+        <v>76115991</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="1">
+        <v>18168695199</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1"/>
@@ -8028,7 +8058,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O36 O37 O2:O4 O38:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8066,19 +8096,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8086,22 +8116,22 @@
         <v>50</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="14">
         <v>43082</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8926,18 +8956,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>35</v>
@@ -8946,7 +8976,7 @@
         <v>43086</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/《个人上线率统计表》-刘乐乐.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -302,6 +302,36 @@
   </si>
   <si>
     <t>一品飘香金地店</t>
+  </si>
+  <si>
+    <t>SaaS+供应链</t>
+  </si>
+  <si>
+    <t>厦门一分地餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>港记甜品</t>
+  </si>
+  <si>
+    <t>哈尔冰</t>
+  </si>
+  <si>
+    <t>港记甜品(学府凯德店)</t>
+  </si>
+  <si>
+    <t>杨土元</t>
+  </si>
+  <si>
+    <t>KA客户开店，无需回访</t>
+  </si>
+  <si>
+    <t>鲜芋仙</t>
+  </si>
+  <si>
+    <t>泉州</t>
+  </si>
+  <si>
+    <t>鲜芋仙(泉州浦西万达店)</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -354,12 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,11 +444,79 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,8 +527,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,32 +545,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,6 +556,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,56 +581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,8 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,7 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +672,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +702,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,31 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,19 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,43 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,37 +1034,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,30 +1068,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1088,6 +1090,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1102,10 +1139,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,137 +1151,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,16 +1369,34 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,10 +1432,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,9 +1469,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,13 +1790,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="9" customWidth="1"/>
@@ -1751,116 +1806,116 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="38">
+      <c r="A3" s="44">
         <v>12</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="45">
         <v>52</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="46">
         <v>3</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="47">
         <v>1</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="47">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="42">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="60">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="61">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="62">
         <f>L3/K3*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="38">
+      <c r="A4" s="44">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="44">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -1869,15 +1924,27 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59" t="e">
+        <f>I4/L4*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="60">
+        <f>C4+G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="61">
+        <f>D4+G4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="62" t="e">
+        <f>L4/K4*100%</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44">
         <v>5</v>
       </c>
       <c r="C5" s="8">
@@ -1892,15 +1959,64 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="8">
+      <c r="I5" s="58">
+        <v>1</v>
+      </c>
+      <c r="J5" s="59">
+        <f>I5/L5*100%</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="60">
+        <f>C5+G5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="61">
+        <f>D5+G5</f>
         <v>1</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="62" t="e">
+        <f>L5/K5*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="50">
+        <v>8</v>
+      </c>
+      <c r="C6" s="50">
+        <v>2</v>
+      </c>
+      <c r="D6" s="50">
+        <v>2</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="58">
+        <v>2</v>
+      </c>
+      <c r="J6" s="59">
+        <f>I6/L6*100%</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="60">
+        <f>C6+G6</f>
+        <v>2</v>
+      </c>
+      <c r="L6" s="61">
+        <f>D6+G6</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="62">
+        <f>L6/K6*100%</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1916,10 +2032,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1935,7 +2051,9 @@
     <col min="10" max="10" width="13.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.975" customWidth="1"/>
     <col min="12" max="14" width="15" customWidth="1"/>
-    <col min="15" max="16384" width="9.73333333333333"/>
+    <col min="15" max="15" width="9.73333333333333"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="16384" width="9.73333333333333"/>
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="1" ht="28.5" spans="1:15">
@@ -1963,7 +2081,7 @@
       <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="22" t="s">
@@ -3590,38 +3708,99 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+    <row r="39" spans="1:16">
+      <c r="A39" s="29">
+        <v>8</v>
+      </c>
+      <c r="B39" s="30">
+        <v>43154</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="1">
+        <v>76130038</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="1">
+        <v>18859273747</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="1">
+        <v>76128703</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="1">
+        <v>18859273747</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
@@ -8044,9 +8223,12 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:A37"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="B4:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="P39:P40"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -8055,10 +8237,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O36 O37 O2:O4 O38:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O36 O37 O38 O2:O4 O39:O40 O41:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8096,19 +8278,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8116,22 +8298,22 @@
         <v>50</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C2" s="14">
         <v>43082</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8956,18 +9138,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>35</v>
@@ -8976,7 +9158,7 @@
         <v>43086</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:4">

--- a/周数据/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/《个人上线率统计表》-刘乐乐.xlsx
@@ -322,7 +322,7 @@
     <t>杨土元</t>
   </si>
   <si>
-    <t>KA客户开店，无需回访</t>
+    <t xml:space="preserve">KA客户开店，无需回访 </t>
   </si>
   <si>
     <t>鲜芋仙</t>
@@ -384,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1281,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,27 +1369,12 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,9 +1415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,116 +1788,116 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="44">
+      <c r="A3" s="39">
         <v>12</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="40">
         <v>52</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="41">
         <v>3</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="42">
         <v>1</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="43">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59">
+      <c r="I3" s="52"/>
+      <c r="J3" s="53">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="54">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="55">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="56">
         <f>L3/K3*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="44">
+      <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -1924,27 +1906,27 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59" t="e">
+      <c r="I4" s="52"/>
+      <c r="J4" s="53" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="54">
         <f>C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="55">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="62" t="e">
+      <c r="M4" s="56" t="e">
         <f>L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39">
         <v>5</v>
       </c>
       <c r="C5" s="8">
@@ -1959,61 +1941,61 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="58">
+      <c r="I5" s="52">
         <v>1</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="53">
         <f>I5/L5*100%</f>
         <v>1</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="54">
         <f>C5+G5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="55">
         <f>D5+G5</f>
         <v>1</v>
       </c>
-      <c r="M5" s="62" t="e">
+      <c r="M5" s="56" t="e">
         <f>L5/K5*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="50">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="8">
         <v>8</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="58">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="52">
         <v>2</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="53">
         <f>I6/L6*100%</f>
         <v>1</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="54">
         <f>C6+G6</f>
         <v>2</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="55">
         <f>D6+G6</f>
         <v>2</v>
       </c>
-      <c r="M6" s="62">
+      <c r="M6" s="56">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
@@ -2035,7 +2017,7 @@
   <dimension ref="A1:P300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2081,7 +2063,7 @@
       <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="22" t="s">
@@ -3709,10 +3691,10 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="29">
+      <c r="A39" s="24">
         <v>8</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="26">
         <v>43154</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3754,13 +3736,13 @@
       <c r="O39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P39" s="34" t="s">
+      <c r="P39" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="1" t="s">
         <v>94</v>
       </c>
@@ -3800,7 +3782,7 @@
       <c r="O40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P40" s="35"/>
+      <c r="P40" s="30"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>

--- a/周数据/《个人上线率统计表》-刘乐乐.xlsx
+++ b/周数据/《个人上线率统计表》-刘乐乐.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>个人上线率分析表</t>
   </si>
@@ -332,6 +332,54 @@
   </si>
   <si>
     <t>鲜芋仙(泉州浦西万达店)</t>
+  </si>
+  <si>
+    <t>南京兴济鸿贸易有限公司</t>
+  </si>
+  <si>
+    <t>怒烤烤串</t>
+  </si>
+  <si>
+    <t>怒烤烤串（南京三元巷店）</t>
+  </si>
+  <si>
+    <t>刘瑞尧</t>
+  </si>
+  <si>
+    <t>供应链负责人</t>
+  </si>
+  <si>
+    <t>怒烤烤串（南京油坊桥店）</t>
+  </si>
+  <si>
+    <t>怒烤烤串（南京云锦路店）</t>
+  </si>
+  <si>
+    <t>怒烤烤串（南京富春江东街店）</t>
+  </si>
+  <si>
+    <t>单店库存</t>
+  </si>
+  <si>
+    <t>常州存誉国际大饭店</t>
+  </si>
+  <si>
+    <t>存乐坊</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>田女士</t>
+  </si>
+  <si>
+    <t>仓库负责人</t>
+  </si>
+  <si>
+    <t>京茶山手作茶物（凤凰西街店）</t>
+  </si>
+  <si>
+    <t>供应链上新店，无需回访</t>
   </si>
   <si>
     <t>立项日期</t>
@@ -384,9 +432,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -466,29 +514,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -543,6 +568,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,27 +631,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,30 +708,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,12 +762,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -775,6 +793,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,16 +1082,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1059,21 +1107,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1084,6 +1117,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,21 +1171,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1139,10 +1187,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,91 +1199,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,41 +1295,41 @@
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,11 +1417,32 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1775,7 +1844,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1788,116 +1857,116 @@
     <col min="7" max="7" width="15.5083333333333" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="38" customWidth="1"/>
     <col min="11" max="11" width="16" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="9" customWidth="1"/>
     <col min="13" max="13" width="18.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:13">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="39">
+      <c r="A3" s="46">
         <v>12</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="47">
         <v>52</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="48">
         <v>3</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="49">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="49">
         <f>C3-D3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="43">
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50">
         <f>F3-G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53">
+      <c r="I3" s="59"/>
+      <c r="J3" s="60">
         <f>I3/L3*100%</f>
         <v>0</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="61">
         <f>C3+G3</f>
         <v>3</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="62">
         <f>D3+G3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="63">
         <f>L3/K3*100%</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="39">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="46">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -1906,27 +1975,27 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53" t="e">
+      <c r="I4" s="59"/>
+      <c r="J4" s="60" t="e">
         <f>I4/L4*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="61">
         <f>C4+G4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="62">
         <f>D4+G4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="56" t="e">
+      <c r="M4" s="63" t="e">
         <f>L4/K4*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46">
         <v>5</v>
       </c>
       <c r="C5" s="8">
@@ -1941,22 +2010,22 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="52">
+      <c r="I5" s="59">
         <v>1</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="60">
         <f>I5/L5*100%</f>
         <v>1</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="61">
         <f>C5+G5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="62">
         <f>D5+G5</f>
         <v>1</v>
       </c>
-      <c r="M5" s="56" t="e">
+      <c r="M5" s="63" t="e">
         <f>L5/K5*100%</f>
         <v>#DIV/0!</v>
       </c>
@@ -1980,22 +2049,22 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="52">
+      <c r="I6" s="59">
         <v>2</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="60">
         <f>I6/L6*100%</f>
         <v>1</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="61">
         <f>C6+G6</f>
         <v>2</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="62">
         <f>D6+G6</f>
         <v>2</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="63">
         <f>L6/K6*100%</f>
         <v>1</v>
       </c>
@@ -2016,8 +2085,8 @@
   <sheetPr/>
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -2063,7 +2132,7 @@
       <c r="H1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="22" t="s">
@@ -3736,7 +3805,7 @@
       <c r="O39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P39" s="30" t="s">
+      <c r="P39" s="36" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3782,109 +3851,272 @@
       <c r="O40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P40" s="30"/>
+      <c r="P40" s="36"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="A41" s="29">
+        <v>11</v>
+      </c>
+      <c r="B41" s="30">
+        <v>43173</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="1">
+        <v>76087815</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" s="1">
+        <v>15651711970</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="1">
+        <v>76110589</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="1">
+        <v>15651711970</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="1">
+        <v>76121671</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="1">
+        <v>15651711970</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="1">
+        <v>76128879</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="1">
+        <v>15651711970</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1">
+        <v>76122671</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" s="1">
+        <v>13904524034</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="1">
+        <v>76126516</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="1">
+        <v>15996499049</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="1">
+        <v>18551613907</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
@@ -8205,11 +8437,13 @@
       <c r="O300" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A46"/>
     <mergeCell ref="B4:B37"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B46"/>
     <mergeCell ref="P39:P40"/>
   </mergeCells>
   <dataValidations count="4">
@@ -8219,10 +8453,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O36 O37 O38 O2:O4 O39:O40 O41:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O25 O26 O27 O28 O29 O30 O31 O32 O33 O34 O35 O36 O37 O38 O45 O46 O2:O4 O39:O40 O41:O44 O47:O1048576">
       <formula1>"新品牌,老品牌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F1048576">
       <formula1>"单店,小连锁,KA项目"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8260,19 +8494,19 @@
         <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8280,22 +8514,22 @@
         <v>50</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C2" s="14">
         <v>43082</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9120,18 +9354,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>35</v>
@@ -9140,7 +9374,7 @@
         <v>43086</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:4">
